--- a/프로젝트/파이썬/코딩교실/만족도조사/만족도조사리스트.xlsx
+++ b/프로젝트/파이썬/코딩교실/만족도조사/만족도조사리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\프로젝트\파이썬\코딩교실\만족도조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7672AB17-F570-4AD0-9BEB-86F405B4F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C92A12-4D03-407E-B322-D46C203D29BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1260" windowWidth="27330" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="117">
   <si>
     <t>9번대답 작성하기</t>
   </si>
@@ -29,99 +29,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://forms.gle/HB2DnotU6XrWvTtu7</t>
+    <t>다양한 주제를 다루는 수업이 더 많았으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>어려운 부분도 있었지만 재미있게 배울 수 있었습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>수업 후에 추가 자료나 참고 자료를 제공해 주시면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>쉬는 시간이 조금 부족했다고 하네요. 전반적으로 좋은 교육이었습니다.</t>
+  </si>
+  <si>
+    <t>다양한 프로그램이 더 많이 제공되었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 코딩에 대한 흥미를 크게 느끼고 자신감을 가지게 되었습니다.</t>
+  </si>
+  <si>
+    <t>다양한 활동을 통해 창의력을 발휘할 수 있어서 매우 좋았습니다.</t>
+  </si>
+  <si>
+    <t>처음에는 어렵게 느껴졌지만 점차 재미있게 배울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>실제 사례를 많이 들어주셔서 이해하기 쉬웠습니다.</t>
+  </si>
+  <si>
+    <t>수업 후에도 우리 아이가 코딩에 대한 관심을 계속 유지하고 있습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 체험 프로그램이 제공되었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>아이가 수업을 즐거워했고 다음에도 참여하고 싶어 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님께서 꼼꼼히 설명해 주셔서 어려운 부분도 잘 이해했습니다.</t>
+  </si>
+  <si>
+    <t>이번 수업이 우리 아이에게 큰 동기부여가 되었습니다. 감사합니다.</t>
+  </si>
+  <si>
+    <t>감사합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧은 시간 동안 많은 것을 배울 수 있어서 매우 만족스럽습니다.</t>
+  </si>
+  <si>
+    <t>주간 수업 시간을 조금 줄이고 횟수를 늘리는 것이 좋을 것 같습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 이 수업을 매우 좋아해서 앞으로도 계속 참여하고 싶어 합니다.</t>
+  </si>
+  <si>
+    <t>수업이 너무 재미있어서 다음에도 기대가 됩니다.</t>
+  </si>
+  <si>
+    <t>심화 과정이 있었으면 더 좋을 것 같습니다.</t>
+  </si>
+  <si>
+    <t>선생님과의 수업이 정말 유익해서 다음에도 이 선생님과 배우고 싶습니다.</t>
+  </si>
+  <si>
+    <t>코딩 중간에 발생하는 문제들을 해결해 주셨으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>수업 시간이 조금 길게 느껴져서 조정이 필요할 것 같습니다.</t>
+  </si>
+  <si>
+    <t>수업이 너무 재미있어서 매주 기다려집니다. 완성된 작품도 만족스럽습니다.</t>
+  </si>
+  <si>
+    <t>훌륭한 선생님 덕분에 수업이 원활하게 진행되었습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이에게 정말 좋은 경험이 되었습니다.</t>
+  </si>
+  <si>
+    <t>수업 횟수가 더 많았으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>좋은 기회를 주셔서 감사합니다. 방학 동안에도 이런 수업이 있으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>이번 수업을 통해 우리 아이가 논리적 사고력을 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>수업 내용이 알차고 실용적이어서 매우 만족스럽습니다.</t>
+  </si>
+  <si>
+    <t>아이가 직접 코딩한 결과물을 보고 매우 뿌듯해했습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 문제를 해결하는 과정을 통해 많은 것을 배웠습니다.</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩을 통해 창의적 문제 해결 능력을 배울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양쓰레기 문제 해결 방안을 고민해보며 환경의 중요성을 깨달았습니다.</t>
+  </si>
+  <si>
+    <t>알고리즘을 배우며 논리적 사고를 키울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>인공지능에 대한 기초 지식을 쌓을 수 있어서 매우 유익했습니다.</t>
+  </si>
+  <si>
+    <t>좋았습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩의 기초부터 차근차근 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>프로젝트를 완성하면서 성취감을 느낄 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>아이가 수업 시간 동안 집중력을 기를 수 있었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님이 친절하고 상세하게 설명해 주셔서 이해하기 쉬웠습니다.</t>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩을 통해 논리적으로 생각하는 방법을 배울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>다양한 활동을 통해 재미있게 코딩을 배울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>수업이 끝난 후에도 우리 아이가 계속 코딩에 관심을 가지게 되었습니다.</t>
+  </si>
+  <si>
+    <t>재밌었습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 수업이 우리 아이에게 큰 즐거움을 주었습니다.</t>
+  </si>
+  <si>
+    <t>더 많은 창의적 코딩 활동이 제공되었으면 좋겠습니다.</t>
+  </si>
+  <si>
+    <t>수업 중에 배우는 내용이 매우 유익하고 흥미로웠습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 코딩을 통해 문제 해결 능력을 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>다양한 예제를 통해 실습할 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>수업 시간 내내 우리 아이가 집중해서 참여할 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>코딩을 통해 논리적 사고와 창의력을 동시에 키울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>재미있었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님이 매우 친절하고 자세히 설명해 주셔서 감사했습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업 후에도 코딩에 대한 흥미를 계속 가지고 있습니다.</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 중에 배우는 내용이 실제로 유용하게 쓰일 것 같아서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>코딩을 통해 창의적으로 생각하는 법을 배울 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>수업 시간 동안 우리 아이가 적극적으로 참여해서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>감사합니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 주제를 다루는 수업이 많아서 우리 아이가 흥미를 느낄 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>수업 후에도 우리 아이가 코딩에 대한 관심을 계속 가지고 있어서 좋습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 직접 코딩한 작품을 자랑스러워했습니다.</t>
+  </si>
+  <si>
+    <t>다양한 활동을 통해 재미있게 배울 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>좋았음</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 이 수업을 매우 좋아해서 앞으로도 계속 참여하고 싶어 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 아이가 그룹 활동을 통해 협동심을 기를 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 게임을 만들어보며 코딩에 더 큰 흥미를 가지게 되었습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업 후에도 코딩에 대해 이야기하는 모습을 보니 기쁩니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업을 통해 새로운 경험을 할 수 있어서 좋았습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 서로 협력하며 프로젝트를 완성하는 모습이 보기 좋았습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 새로운 기술을 배우는 모습을 보니 뿌듯했습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업을 즐거워했고 다음에도 참여하고 싶어 합니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 배운 내용을 집에서도 자주 연습하고 있습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 직접 코딩한 결과물을 보고 매우 뿌듯해했습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업을 통해 새로운 친구들을 사귈 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 수업 시간 동안 집중력을 기를 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>우리 아이가 다양한 프로젝트를 통해 성취감을 느낄 수 있었습니다.</t>
+  </si>
+  <si>
+    <t>수업을 즐거워했고 다음에도 참여하고 싶어 합니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>배운 내용을 집에서도 자주 연습하고 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥미를 느껴 좋았습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 배운 내용을 집에서도 자주 연습하고 있습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>없습니다</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한 프로젝트를 통해 성취감을 느낄 수 있었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 서로 협력하며 프로젝트를 완성하는 모습이 보기 좋았습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 새로운 기술을 배우는 모습을 보니 뿌듯했습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 코딩한 작품을 자랑스러워했습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩을 통해 문제 해결 능력을 키울 수 있었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 코딩에 대한 흥미를 크게 느끼고 자신감을 가지게 되었습니다.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 이 수업을 매우 좋아해서 앞으로도 계속 참여하고 싶어 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수업 횟수가 더 많았으면 좋겠어요.</t>
-  </si>
-  <si>
-    <t>이번 수업을 통해 아이가 코딩에 대한 두려움을 극복하고 자신감을 얻었습니다.</t>
-  </si>
-  <si>
-    <t>프로그램을 통해 창의력을 발휘할 수 있는 기회를 가져서 좋았다고 합니다.</t>
-  </si>
-  <si>
-    <t>첫 수업에서는 조금 어렵게 느껴졌지만 점점 흥미로운 활동들이 많아져서 좋았습니다.</t>
-  </si>
-  <si>
-    <t>선생님이 실제 사례를 많이 들어주셔서 이해하는 데 도움이 많이 되었습니다.</t>
-  </si>
-  <si>
-    <t>수업이 끝난 후에도 아이가 계속 코딩에 관심을 가지고 있어서 기쁩니다.</t>
-  </si>
-  <si>
-    <t>이런 체험 프로그램이 더 많이 제공되었으면 좋겠습니다.</t>
-  </si>
-  <si>
-    <t>아이가 선생님과의 수업을 매우 즐거워했습니다. 다음에도 참여하고 싶어 해요.</t>
-  </si>
-  <si>
-    <t>선생님께서 꼼꼼하게 설명해 주셔서 어려운 부분도 잘 이해할 수 있었습니다.</t>
-  </si>
-  <si>
-    <t>이번 수업이 아이에게 큰 동기부여가 되었습니다. 감사합니다.</t>
-  </si>
-  <si>
-    <t>아이가 수업 중에 배운 내용을 집에서도 자주 연습하고 있습니다.</t>
-  </si>
-  <si>
-    <t>짧은 시간 동안 많은 것을 배울 수 있어서 만족스럽습니다.</t>
-  </si>
-  <si>
-    <t>다양한 주제를 다루는 수업이 더 많았으면 좋겠습니다.</t>
-  </si>
-  <si>
-    <t>어려운 부분도 있었지만 재미있게 배울 수 있었습니다. 감사합니다.</t>
-  </si>
-  <si>
-    <t>수업 후에 추가 자료나 참고 자료를 제공해 주시면 좋겠습니다.</t>
-  </si>
-  <si>
-    <t>주간 수업 시간을 조금 줄이고 횟수를 늘리는 것이 좋을 것 같아요.</t>
-  </si>
-  <si>
-    <t>우리 아이가 이 수업을 너무 좋아해서 앞으로도 계속 참여하고 싶어 합니다.</t>
-  </si>
-  <si>
-    <t>수업이 너무 재미있어서 다음에도 기대됩니다.</t>
-  </si>
-  <si>
-    <t>심화 과정이 있었으면 더 좋을 것 같아요.</t>
-  </si>
-  <si>
-    <t>선생님과의 수업이 정말 유익해서 다음에도 이 선생님과 배우고 싶어요.</t>
-  </si>
-  <si>
-    <t>코딩 중간에 발생하는 문제들을 해결해 주셨으면 좋겠어요.</t>
-  </si>
-  <si>
-    <t>수업 시간이 조금 길게 느껴져서 조정이 필요할 것 같아요.</t>
-  </si>
-  <si>
-    <t>수업이 너무 재미있어서 매주 기다려집니다. 완성된 작품도 만족스러워요.</t>
-  </si>
-  <si>
-    <t>훌륭한 선생님 덕분에 수업이 원활하게 진행되었습니다. 시간 약속을 지키지 않는 친구가 있어서 아쉬웠어요.</t>
-  </si>
-  <si>
-    <t>아이에게 정말 좋은 경험이 되었어요.</t>
-  </si>
-  <si>
-    <t>쉬는 시간이 조금 부족했다고 하네요. 전반적으로 좋은 교육이었습니다.</t>
-  </si>
-  <si>
-    <t>다양한 프로그램이 더 많이 제공되었으면 좋겠습니다.</t>
-  </si>
-  <si>
-    <t>좋은 기회를 주셔서 감사합니다. 방학 동안에도 이런 수업이 있으면 좋겠어요.</t>
+    <t>수업을 즐거워했고 다음에도 참여하고 싶어 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 뿌듯해합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에도 또 하고 싶다네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고마워요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친절히 해주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>늘 배려해주시고 친절히 해주셔서 감사합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재밌어하더군요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또 하고 싶다하네요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고맙습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.gle/JKbMd6gAbQcsjMte7</t>
+  </si>
+  <si>
+    <t>아이가 수업 후에도 코딩에 대한 흥미를 계속 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 코딩을 통해 문제 해결 능력을 키울 수 있었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩에 대한 흥미를 크게 느끼고 자신감을 가지게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 수업을 통해 새로운 경험을 할 수 있어서 좋았습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 후에도 코딩에 대한 흥미를 계속 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아이가 수업 후에도 코딩에 대한 흥미를 계속 가지고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 새로운 기술을 배우는 모습을 보니 뿌듯했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 코딩한 작품을 자랑스러워했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,6 +467,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +500,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,9 +528,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -531,10 +841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q128" sqref="Q128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -553,92 +863,92 @@
         <v>1</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" ht="16.5" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -647,8 +957,8 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
-        <v>19</v>
+      <c r="A17" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -667,8 +977,8 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
-        <v>23</v>
+      <c r="A21" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -693,30 +1003,1632 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="9" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
+      <c r="A27" s="10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="Q1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>